--- a/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2016914341202996</v>
+        <v>0.2010338586051452</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.275923442095586</v>
+        <v>0.276071304398079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2010962094417167</v>
+        <v>0.1995749041001567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1561377214141297</v>
+        <v>0.1537220741230863</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.234831693280545</v>
+        <v>0.232773722917442</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2575453298467981</v>
+        <v>0.2611175707620149</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2064150394109419</v>
+        <v>0.2065451345738769</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1581697105188331</v>
+        <v>0.1587823452026188</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2286062573730651</v>
+        <v>0.2282299965757308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2806456722476405</v>
+        <v>0.2802289617605651</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2151621692202132</v>
+        <v>0.2116944783495614</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1730997834891879</v>
+        <v>0.1740848173778227</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2784452474986785</v>
+        <v>0.2793873891877912</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3659106285616223</v>
+        <v>0.3650165060757517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2883034085886932</v>
+        <v>0.2830295485300283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2926485465971103</v>
+        <v>0.2918909228664875</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3147784586022643</v>
+        <v>0.3112135881980893</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3431154568482541</v>
+        <v>0.3490416492763048</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2904548702032708</v>
+        <v>0.2924131445148276</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2764172874900623</v>
+        <v>0.271861991244659</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2825334136927516</v>
+        <v>0.2838293165485773</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3415923720704137</v>
+        <v>0.3408607604380708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2733342988540905</v>
+        <v>0.275272494859065</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.261278439770005</v>
+        <v>0.2614222775524505</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2224447192758066</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.1944059064372736</v>
+        <v>0.1944059064372735</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.1989672559023062</v>
@@ -833,7 +833,7 @@
         <v>0.2044142093735033</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2298395338357958</v>
+        <v>0.2298395338357959</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1815486193327679</v>
+        <v>0.1817264953855238</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2151758859668894</v>
+        <v>0.2151538749078775</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1574488102168752</v>
+        <v>0.1565371305226355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2173808608324221</v>
+        <v>0.2179979646891031</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.155131831281883</v>
+        <v>0.1528366194047825</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1187183762435935</v>
+        <v>0.1188508880641013</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1905883142321725</v>
+        <v>0.1874890631470892</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1601191997331775</v>
+        <v>0.1626722314663629</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1777532199190507</v>
+        <v>0.1788818907546616</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1767966482122465</v>
+        <v>0.1773198402315791</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1813302382301593</v>
+        <v>0.1814391193958998</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1982875086794804</v>
+        <v>0.2015221718633172</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2457519412256281</v>
+        <v>0.2438745811280831</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2856706036943247</v>
+        <v>0.283732248721674</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2219444070597431</v>
+        <v>0.2232382792013776</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3225586015888273</v>
+        <v>0.3216315364998932</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.218142924479339</v>
+        <v>0.2177545630486234</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.176059556932625</v>
+        <v>0.1797084007945107</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2609162411952718</v>
+        <v>0.2593699069554244</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2333492229011144</v>
+        <v>0.2383226800705048</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2211983108550114</v>
+        <v>0.2230154096068724</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2206008469808414</v>
+        <v>0.2238163346735407</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2295163064162548</v>
+        <v>0.2276578377273103</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2639103053329153</v>
+        <v>0.2660035838368046</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.1287947223261759</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.1818421068234622</v>
+        <v>0.1818421068234621</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1200740393533485</v>
+        <v>0.1193514538447807</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1381682254250653</v>
+        <v>0.1367972257481266</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.09797059285018959</v>
+        <v>0.09888772983162426</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1742709020208275</v>
+        <v>0.1748194326128136</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09101984753556833</v>
+        <v>0.09279978445082464</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1285983281631344</v>
+        <v>0.1241721614846875</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1095989668757452</v>
+        <v>0.11118810376221</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1315090650008082</v>
+        <v>0.1320879743314351</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1131313879010362</v>
+        <v>0.1109618344774227</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1401614488986756</v>
+        <v>0.138393501554844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1117765716831751</v>
+        <v>0.1132383526948734</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1614773795903133</v>
+        <v>0.1586433292252437</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1788470449614097</v>
+        <v>0.1779439093447192</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1960463319140878</v>
+        <v>0.1984393420549162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.149332826677552</v>
+        <v>0.1532813677373191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2437165316805256</v>
+        <v>0.2449793251275502</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1396973809926493</v>
+        <v>0.143385640335974</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1833003040108009</v>
+        <v>0.180850270679315</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1623927248579459</v>
+        <v>0.1612022074952</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.180534756484706</v>
+        <v>0.1830600704875543</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1514492279286322</v>
+        <v>0.1487198084405539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.178426742650553</v>
+        <v>0.1817917320735729</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1487934392707619</v>
+        <v>0.149135273733676</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2029042392426875</v>
+        <v>0.2029646721812147</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1280805713693929</v>
+        <v>0.1279148755655554</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1374461260402196</v>
+        <v>0.1395788743222268</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0970535961931611</v>
+        <v>0.0964562725893426</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1317849794514746</v>
+        <v>0.1310918168468846</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.073506202278455</v>
+        <v>0.07462736771196966</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09276709444814807</v>
+        <v>0.08839512321134012</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08725836624232292</v>
+        <v>0.08827338905489228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1206844248636701</v>
+        <v>0.1178543129771869</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1104586347111733</v>
+        <v>0.1076607522746855</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1218498159317649</v>
+        <v>0.1216190615092736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09719049064643639</v>
+        <v>0.09745191246100623</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1295532679600968</v>
+        <v>0.1334892957020367</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1969339974027652</v>
+        <v>0.1962103532469793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2015765077234332</v>
+        <v>0.1996197267129953</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.149585329036275</v>
+        <v>0.1509303907774689</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1898449444329486</v>
+        <v>0.190085554357053</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1263950919573004</v>
+        <v>0.1294211086829218</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.144160182468567</v>
+        <v>0.1448504915961319</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1390249334919394</v>
+        <v>0.1376709508306676</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1612812565898328</v>
+        <v>0.1596518441015417</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1523507472219763</v>
+        <v>0.1514370044862331</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1646442822870906</v>
+        <v>0.1642947534074906</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1336235347737801</v>
+        <v>0.1343682429107867</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1653540753910507</v>
+        <v>0.1663459801180293</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0696910903351126</v>
+        <v>0.07002911758049969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07225450444464881</v>
+        <v>0.07394720775225407</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0807079946987031</v>
+        <v>0.07936677901851334</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1100479162491244</v>
+        <v>0.1091787613350092</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04589739915710545</v>
+        <v>0.04861725079960897</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06799401073136056</v>
+        <v>0.06928119121394553</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07871304301021434</v>
+        <v>0.07809999642938832</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09754455782766797</v>
+        <v>0.09877186960055956</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06614980171105755</v>
+        <v>0.06585560737451059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.07845051707111347</v>
+        <v>0.07902206622229958</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.08739303629465972</v>
+        <v>0.08660087116231692</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.109279681643737</v>
+        <v>0.1084099915188411</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1288368724325796</v>
+        <v>0.1296312410225142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1302959308874623</v>
+        <v>0.1352604414754404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1387154426074048</v>
+        <v>0.1343286663267486</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1652329096866088</v>
+        <v>0.1615034817357598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0991463337536775</v>
+        <v>0.09851900395330825</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1238701796907139</v>
+        <v>0.1271540809748757</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1357744737000204</v>
+        <v>0.1360638219442303</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.139385049584529</v>
+        <v>0.1392412974588065</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.104993403147759</v>
+        <v>0.1043184493312109</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1166430808791002</v>
+        <v>0.118353246721364</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1293290667990186</v>
+        <v>0.1286438344185415</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1421370515417277</v>
+        <v>0.1404933462388881</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02908523068832188</v>
+        <v>0.03098819586723304</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04559502516834083</v>
+        <v>0.04989714242290615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03776697347265103</v>
+        <v>0.04066651520487345</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07652662748664955</v>
+        <v>0.07683104819530692</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02641609406410401</v>
+        <v>0.02445960592709837</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0362132243179343</v>
+        <v>0.03363594837778102</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05391863572570518</v>
+        <v>0.05325998965888935</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.05207329697755243</v>
+        <v>0.05216499081729242</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.0308412285798125</v>
+        <v>0.0334981254577226</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0462068381295126</v>
+        <v>0.04802636010773776</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.05402408122051003</v>
+        <v>0.05314152991534669</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.06910126670984575</v>
+        <v>0.06955418324482349</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08206285395873787</v>
+        <v>0.08621745508224674</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1043556770097898</v>
+        <v>0.1108392860718927</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.09591324709435091</v>
+        <v>0.09442570027977024</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1278901441978899</v>
+        <v>0.1262944322008426</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06775093714723428</v>
+        <v>0.06836330467445884</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08592512339960778</v>
+        <v>0.08878389060054608</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1117401219460904</v>
+        <v>0.1105625798242517</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08713624843273862</v>
+        <v>0.08607324952778955</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0643001874501716</v>
+        <v>0.06648230745543707</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.08625201864742216</v>
+        <v>0.08911904123492878</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.09263644555405318</v>
+        <v>0.09287644865611433</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.09941548382222726</v>
+        <v>0.09825473736070685</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.04016996482711453</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.05873751906805327</v>
+        <v>0.05873751906805328</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03067185230934279</v>
+        <v>0.0313446306845487</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.0128938391884426</v>
+        <v>0.01297327807428833</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02494597550636539</v>
+        <v>0.02552982119401836</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0546701275135739</v>
+        <v>0.05394709040668842</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.003681421779796672</v>
+        <v>0.003518178622050218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02841272529275167</v>
+        <v>0.02836550625748821</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01924209196876706</v>
+        <v>0.01966087612014104</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.03433632481739155</v>
+        <v>0.03408309588613216</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01752194229599007</v>
+        <v>0.01808140692308854</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02586556065109552</v>
+        <v>0.02728042500878564</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.02583121269550881</v>
+        <v>0.02588837142901956</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.04730119039156144</v>
+        <v>0.04706941514088295</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1023417196541836</v>
+        <v>0.09763137721016238</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06084543261318225</v>
+        <v>0.06078013409920264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08077419662004311</v>
+        <v>0.0809428659190097</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1034050753207676</v>
+        <v>0.1050974292106908</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03484287316218172</v>
+        <v>0.03168831270816081</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07229750361566734</v>
+        <v>0.07115219520126734</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0622581490790908</v>
+        <v>0.05917208861788897</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06478552997839911</v>
+        <v>0.06427246901228566</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04882973988265264</v>
+        <v>0.04779310559280042</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05767248432614696</v>
+        <v>0.05918547177363606</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05906957133455221</v>
+        <v>0.0584833933096012</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07333079976107272</v>
+        <v>0.07418318977261851</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.143847546553388</v>
+        <v>0.1441681623315273</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.163796189784567</v>
+        <v>0.1621590583207338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1231764989715528</v>
+        <v>0.1221501551165663</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1541030503092878</v>
+        <v>0.1564092147845158</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1136539755884104</v>
+        <v>0.1124466966701255</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1227850932001825</v>
+        <v>0.123278629522971</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1250090515558696</v>
+        <v>0.1246863088772536</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1232435916623572</v>
+        <v>0.1227496571733463</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1314443443094817</v>
+        <v>0.1331820883015168</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.146452928045385</v>
+        <v>0.1462099325284876</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.127142726679158</v>
+        <v>0.1275956402206338</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1416275293917481</v>
+        <v>0.142762717467611</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1694208848364191</v>
+        <v>0.1691936911074355</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1895208409637404</v>
+        <v>0.1904677285638804</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1472605751475211</v>
+        <v>0.1461189281577772</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1840773258585659</v>
+        <v>0.1847526812632788</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1369254144854399</v>
+        <v>0.1362056538909484</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1461235814016261</v>
+        <v>0.1473085039943351</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1475704631589553</v>
+        <v>0.1484718835857695</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1442529087985298</v>
+        <v>0.1445336747949941</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1495804196739081</v>
+        <v>0.1499713120529937</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1642191328485787</v>
+        <v>0.1640271377188005</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1435961321907276</v>
+        <v>0.1447442416471867</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1594976769982665</v>
+        <v>0.1609153214168622</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>99307</v>
+        <v>98983</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>124348</v>
+        <v>124415</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>83417</v>
+        <v>82786</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>63672</v>
+        <v>62687</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>109359</v>
+        <v>108400</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109722</v>
+        <v>111243</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>81478</v>
+        <v>81529</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>57338</v>
+        <v>57561</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>219018</v>
+        <v>218658</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>246039</v>
+        <v>245674</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>174183</v>
+        <v>171376</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>133340</v>
+        <v>134098</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>137098</v>
+        <v>137562</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>164902</v>
+        <v>164499</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119592</v>
+        <v>117404</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>119340</v>
+        <v>119031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>146589</v>
+        <v>144929</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>146177</v>
+        <v>148702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>114651</v>
+        <v>115424</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>100205</v>
+        <v>98553</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>270683</v>
+        <v>271925</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>299470</v>
+        <v>298829</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>221276</v>
+        <v>222845</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>201264</v>
+        <v>201375</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>133182</v>
+        <v>133313</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>146819</v>
+        <v>146804</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>92152</v>
+        <v>91618</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>103667</v>
+        <v>103961</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>96855</v>
+        <v>95422</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72220</v>
+        <v>72300</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>107226</v>
+        <v>105482</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>80003</v>
+        <v>81278</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>241377</v>
+        <v>242909</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>228182</v>
+        <v>228858</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>208146</v>
+        <v>208271</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>193635</v>
+        <v>196793</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>180281</v>
+        <v>178904</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>194919</v>
+        <v>193597</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>129900</v>
+        <v>130657</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>153825</v>
+        <v>153383</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>136196</v>
+        <v>135954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>107102</v>
+        <v>109321</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>146793</v>
+        <v>145923</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>116592</v>
+        <v>119077</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>300372</v>
+        <v>302840</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>284718</v>
+        <v>288868</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>263458</v>
+        <v>261325</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>257718</v>
+        <v>259762</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>76590</v>
+        <v>76129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>93819</v>
+        <v>92888</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>65258</v>
+        <v>65868</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107523</v>
+        <v>107862</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62691</v>
+        <v>63917</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>90592</v>
+        <v>87474</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>71984</v>
+        <v>73028</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>81817</v>
+        <v>82177</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>150082</v>
+        <v>147204</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>193910</v>
+        <v>191464</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>147868</v>
+        <v>149802</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>200091</v>
+        <v>196580</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>114079</v>
+        <v>113503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>133120</v>
+        <v>134744</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>99470</v>
+        <v>102100</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>150371</v>
+        <v>151150</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>96219</v>
+        <v>98759</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>129127</v>
+        <v>127401</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>106659</v>
+        <v>105877</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>112318</v>
+        <v>113889</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>200916</v>
+        <v>197295</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>246849</v>
+        <v>251505</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>196837</v>
+        <v>197289</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>251425</v>
+        <v>251499</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66345</v>
+        <v>66260</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>83604</v>
+        <v>84902</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>62393</v>
+        <v>62009</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>92174</v>
+        <v>91689</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>37754</v>
+        <v>38330</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>56767</v>
+        <v>54091</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>56082</v>
+        <v>56734</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88700</v>
+        <v>86620</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>113951</v>
+        <v>111064</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>148681</v>
+        <v>148399</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>124947</v>
+        <v>125283</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>185832</v>
+        <v>191478</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>102011</v>
+        <v>101637</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>122613</v>
+        <v>121423</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>96165</v>
+        <v>97030</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>132783</v>
+        <v>132951</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>64919</v>
+        <v>66473</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>88215</v>
+        <v>88638</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>89352</v>
+        <v>88482</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>118538</v>
+        <v>117340</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>157167</v>
+        <v>156225</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>200898</v>
+        <v>200472</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>171784</v>
+        <v>172742</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>237185</v>
+        <v>238608</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26876</v>
+        <v>27006</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30879</v>
+        <v>31602</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38292</v>
+        <v>37655</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>66942</v>
+        <v>66413</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>18542</v>
+        <v>19641</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>30302</v>
+        <v>30876</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>38823</v>
+        <v>38521</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>59328</v>
+        <v>60075</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52234</v>
+        <v>52001</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>68489</v>
+        <v>68988</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>84568</v>
+        <v>83802</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>132940</v>
+        <v>131882</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>49685</v>
+        <v>49991</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>55683</v>
+        <v>57805</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>65813</v>
+        <v>63732</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>100511</v>
+        <v>98242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>40054</v>
+        <v>39800</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>55204</v>
+        <v>56667</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>66968</v>
+        <v>67110</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>84777</v>
+        <v>84689</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>82906</v>
+        <v>82373</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>101832</v>
+        <v>103325</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>125149</v>
+        <v>124486</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>172912</v>
+        <v>170912</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>8479</v>
+        <v>9034</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13991</v>
+        <v>15311</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>12443</v>
+        <v>13399</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>31071</v>
+        <v>31194</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>9059</v>
+        <v>8388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12640</v>
+        <v>11740</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>20098</v>
+        <v>19853</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22837</v>
+        <v>22877</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>19568</v>
+        <v>21253</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>30307</v>
+        <v>31500</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>37937</v>
+        <v>37317</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>58361</v>
+        <v>58743</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23924</v>
+        <v>25135</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32021</v>
+        <v>34011</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>31601</v>
+        <v>31111</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>51925</v>
+        <v>51277</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>23234</v>
+        <v>23444</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29991</v>
+        <v>30989</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>41651</v>
+        <v>41212</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>38214</v>
+        <v>37748</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>40796</v>
+        <v>42180</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>56572</v>
+        <v>58452</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>65052</v>
+        <v>65220</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>83963</v>
+        <v>82983</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>6438</v>
+        <v>6579</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3153</v>
+        <v>3173</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>6293</v>
+        <v>6441</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>16940</v>
+        <v>16716</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1221</v>
+        <v>1167</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>10740</v>
+        <v>10722</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7608</v>
+        <v>7774</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>15953</v>
+        <v>15835</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>9489</v>
+        <v>9792</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>16103</v>
+        <v>16984</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>16730</v>
+        <v>16767</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>36633</v>
+        <v>36454</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>21480</v>
+        <v>20491</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>14881</v>
+        <v>14865</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>20378</v>
+        <v>20420</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>32041</v>
+        <v>32565</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>11556</v>
+        <v>10510</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27328</v>
+        <v>26895</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>24617</v>
+        <v>23396</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>30100</v>
+        <v>29862</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26444</v>
+        <v>25882</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>35904</v>
+        <v>36846</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>38258</v>
+        <v>37878</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>56792</v>
+        <v>57452</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>470218</v>
+        <v>471266</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>556751</v>
+        <v>551186</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>414522</v>
+        <v>411068</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>543254</v>
+        <v>551384</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>383127</v>
+        <v>379058</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>432624</v>
+        <v>434363</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>439808</v>
+        <v>438672</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>459780</v>
+        <v>457937</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>872773</v>
+        <v>884311</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1013817</v>
+        <v>1012135</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>875184</v>
+        <v>878302</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1027639</v>
+        <v>1035876</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>553814</v>
+        <v>553071</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>644190</v>
+        <v>647409</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>495572</v>
+        <v>491730</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>648922</v>
+        <v>651303</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>461575</v>
+        <v>459149</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>514856</v>
+        <v>519031</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>519184</v>
+        <v>522355</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>538158</v>
+        <v>539206</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>993194</v>
+        <v>995789</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1136803</v>
+        <v>1135474</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>988441</v>
+        <v>996344</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1157303</v>
+        <v>1167590</v>
       </c>
     </row>
     <row r="36">
